--- a/biology/Botanique/Lysimaque_des_bois/Lysimaque_des_bois.xlsx
+++ b/biology/Botanique/Lysimaque_des_bois/Lysimaque_des_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lysimachia nemorum
-La Lysimaque des bois (Lysimachia nemorum) est une espèce de plantes à fleurs de la famille des Primulacées selon la classification classique et la classification phylogénétique APG III (2009)[1] (ou de la famille des Myrsinacées selon la classification phylogénétique APG (1998)[2] et la classification phylogénétique APG II (2003)[3]).
+La Lysimaque des bois (Lysimachia nemorum) est une espèce de plantes à fleurs de la famille des Primulacées selon la classification classique et la classification phylogénétique APG III (2009) (ou de la famille des Myrsinacées selon la classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003)).
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante herbacée rampante, à feuilles opposées, à fleurs jaunes.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lysimaque_des_bois</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lysimaque_des_bois</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juin-septembre
 Inflorescence : racème simple
